--- a/public/js/Revit_Properties.xlsx
+++ b/public/js/Revit_Properties.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT11"/>
+  <dimension ref="A1:CD9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,234 +410,264 @@
         <v>Name</v>
       </c>
       <c r="C1" t="str">
-        <v>Identity Data - Name</v>
+        <v>Analytical Properties:Absorptance</v>
       </c>
       <c r="D1" t="str">
-        <v>Identity Data - Structural</v>
+        <v>Analytical Properties:Heat Transfer Coefficient (U)</v>
       </c>
       <c r="E1" t="str">
-        <v>Identity Data - Building Story</v>
+        <v>Analytical Properties:Roughness</v>
       </c>
       <c r="F1" t="str">
-        <v>Identity Data - COBie.Floor.Name</v>
+        <v>Analytical Properties:Thermal Mass</v>
       </c>
       <c r="G1" t="str">
-        <v>Identity Data - Uniclass_2015_Ss_Code</v>
+        <v>Analytical Properties:Thermal Resistance (R)</v>
       </c>
       <c r="H1" t="str">
-        <v>Identity Data - Uniclass_2015_Ss_Title</v>
+        <v>Constraints:Base Constraint</v>
       </c>
       <c r="I1" t="str">
-        <v>Identity Data - Uniclass_2015_SL_Code</v>
+        <v>Constraints:Base Extension Distance</v>
       </c>
       <c r="J1" t="str">
-        <v>Identity Data - Uniclass_2015_SL_Title</v>
+        <v>Constraints:Base is Attached</v>
       </c>
       <c r="K1" t="str">
-        <v>Identity Data - COBie.Floor.Description</v>
+        <v>Constraints:Base Offset</v>
       </c>
       <c r="L1" t="str">
-        <v>Identity Data - NEOM_Component_Name</v>
+        <v>Constraints:Elevation</v>
       </c>
       <c r="M1" t="str">
-        <v>Identity Data - NEOM_RoomSpace_Type</v>
+        <v>Constraints:Location Line</v>
       </c>
       <c r="N1" t="str">
-        <v>Identity Data - RBTA.Level.Grouping</v>
+        <v>Constraints:Related to Mass</v>
       </c>
       <c r="O1" t="str">
-        <v>Identity Data - COBie.Component.Description</v>
+        <v>Constraints:Room Bounding</v>
       </c>
       <c r="P1" t="str">
-        <v>Identity Data - COBie.Component.Name</v>
+        <v>Constraints:Story Above</v>
       </c>
       <c r="Q1" t="str">
-        <v>Identity Data - COBie.Space.Description</v>
+        <v>Constraints:Top Constraint</v>
       </c>
       <c r="R1" t="str">
-        <v>Identity Data - COBie.Space.Name</v>
+        <v>Constraints:Top Extension Distance</v>
       </c>
       <c r="S1" t="str">
-        <v>Identity Data - COBie.Type.Description</v>
+        <v>Constraints:Top is Attached</v>
       </c>
       <c r="T1" t="str">
-        <v>Identity Data - COBie.Type.Name</v>
+        <v>Constraints:Top Offset</v>
       </c>
       <c r="U1" t="str">
-        <v>Identity Data - Workset</v>
+        <v>Constraints:Unconnected Height</v>
       </c>
       <c r="V1" t="str">
-        <v>Identity Data - Edited by</v>
+        <v>Construction:Function</v>
       </c>
       <c r="W1" t="str">
-        <v>Constraints - Elevation</v>
+        <v>Construction:Structure</v>
       </c>
       <c r="X1" t="str">
-        <v>Constraints - Story Above</v>
+        <v>Construction:Width</v>
       </c>
       <c r="Y1" t="str">
-        <v>Dimensions - Computation Height</v>
+        <v>Construction:Wrapping at Ends</v>
       </c>
       <c r="Z1" t="str">
-        <v>Dimensions - COBie.Type.Size</v>
+        <v>Construction:Wrapping at Inserts</v>
       </c>
       <c r="AA1" t="str">
-        <v>Dimensions - COBie.Type.NominalHeight</v>
+        <v>Cross-Section Definition:Cross-Section</v>
       </c>
       <c r="AB1" t="str">
-        <v>Dimensions - COBie.Type.NominalLength</v>
+        <v>Dimensions:Area</v>
       </c>
       <c r="AC1" t="str">
-        <v>Dimensions - COBie.Type.NominalWidth</v>
+        <v>Dimensions:Computation Height</v>
       </c>
       <c r="AD1" t="str">
-        <v>Extents - Scope Box</v>
+        <v>Dimensions:Length</v>
       </c>
       <c r="AE1" t="str">
-        <v>General - NEOM_Floor_Name</v>
+        <v>Dimensions:Volume</v>
       </c>
       <c r="AF1" t="str">
-        <v>General - NEOM_Type_Size</v>
+        <v>Extents:Scope Box</v>
       </c>
       <c r="AG1" t="str">
-        <v>General - NEOM_Design_Occupancy</v>
+        <v>Graphics:Coarse Scale Fill Color</v>
       </c>
       <c r="AH1" t="str">
-        <v>General - GEN_Review</v>
+        <v>Graphics:Coarse Scale Fill Pattern</v>
       </c>
       <c r="AI1" t="str">
-        <v>General - NEOM_Floor_Description</v>
+        <v>Identity Data:Assembly Code</v>
       </c>
       <c r="AJ1" t="str">
-        <v>Materials and Finishes - COBie.Type.Material</v>
+        <v>Identity Data:Assembly Description</v>
       </c>
       <c r="AK1" t="str">
-        <v>Data - COBie.System.Name</v>
+        <v>Identity Data:Author</v>
       </c>
       <c r="AL1" t="str">
-        <v>Data - COBie.System.Description</v>
+        <v>Identity Data:Building Name</v>
       </c>
       <c r="AM1" t="str">
-        <v>Data - NEOM_Floor_Area</v>
+        <v>Identity Data:Building Story</v>
       </c>
       <c r="AN1" t="str">
-        <v>Data - GEN_Zone</v>
+        <v>Identity Data:Comments</v>
       </c>
       <c r="AO1" t="str">
-        <v>Other - NEOM_Risk_Class</v>
+        <v>Identity Data:Cost</v>
       </c>
       <c r="AP1" t="str">
-        <v>Photometrics - NEOM_Designed_Lux_Level</v>
+        <v>Identity Data:Description</v>
       </c>
       <c r="AQ1" t="str">
-        <v>Mechanical - NEOM_Designed_Temperature</v>
+        <v>Identity Data:Edited by</v>
       </c>
       <c r="AR1" t="str">
-        <v>Text - Services Workset</v>
+        <v>Identity Data:Fire Rating</v>
       </c>
       <c r="AS1" t="str">
-        <v>IFC Parameters - IfcGUID</v>
+        <v>Identity Data:Image</v>
       </c>
       <c r="AT1" t="str">
-        <v>Identity Data - Organization Name</v>
+        <v>Identity Data:Keynote</v>
       </c>
       <c r="AU1" t="str">
-        <v>Identity Data - Organization Description</v>
+        <v>Identity Data:Manufacturer</v>
       </c>
       <c r="AV1" t="str">
-        <v>Identity Data - Building Name</v>
+        <v>Identity Data:Mark</v>
       </c>
       <c r="AW1" t="str">
-        <v>Identity Data - Author</v>
+        <v>Identity Data:Model</v>
       </c>
       <c r="AX1" t="str">
-        <v>Identity Data - ModelFileRef</v>
+        <v>Identity Data:Name</v>
       </c>
       <c r="AY1" t="str">
-        <v>Identity Data - Omniclass_Entities_by_Form_Number</v>
+        <v>Identity Data:Organization Description</v>
       </c>
       <c r="AZ1" t="str">
-        <v>Identity Data - Omniclass_Entities_by_Form_Title</v>
+        <v>Identity Data:Organization Name</v>
       </c>
       <c r="BA1" t="str">
-        <v>Identity Data - Omniclass_Entities_by_Function_Number</v>
+        <v>Identity Data:Structural</v>
       </c>
       <c r="BB1" t="str">
-        <v>Identity Data - Omniclass_Entities_by_Function_Title</v>
+        <v>Identity Data:Type Comments</v>
       </c>
       <c r="BC1" t="str">
-        <v>Other - Project Issue Date</v>
+        <v>Identity Data:Type Image</v>
       </c>
       <c r="BD1" t="str">
-        <v>Other - Project Status</v>
+        <v>Identity Data:Type Mark</v>
       </c>
       <c r="BE1" t="str">
-        <v>Other - Client Name</v>
+        <v>Identity Data:Type Name</v>
       </c>
       <c r="BF1" t="str">
-        <v>Other - Project Address</v>
+        <v>Identity Data:URL</v>
       </c>
       <c r="BG1" t="str">
-        <v>Other - Project Name</v>
+        <v>Identity Data:Workset</v>
       </c>
       <c r="BH1" t="str">
-        <v>Other - Project Number</v>
+        <v>IFC Parameters:Export to IFC</v>
       </c>
       <c r="BI1" t="str">
-        <v>Text - ModelCreatedBy</v>
+        <v>IFC Parameters:Export to IFC As</v>
       </c>
       <c r="BJ1" t="str">
-        <v>Text - ModelCreationDate</v>
+        <v>IFC Parameters:Export Type to IFC</v>
       </c>
       <c r="BK1" t="str">
-        <v>Text - ModelDescription</v>
+        <v>IFC Parameters:Export Type to IFC As</v>
       </c>
       <c r="BL1" t="str">
-        <v>Text - ModelIssueDate</v>
+        <v>IFC Parameters:IFC Predefined Type</v>
       </c>
       <c r="BM1" t="str">
-        <v>Text - ModelReference</v>
+        <v>IFC Parameters:IfcBuilding GUID</v>
       </c>
       <c r="BN1" t="str">
-        <v>Text - ModelVersion</v>
+        <v>IFC Parameters:IfcGUID</v>
       </c>
       <c r="BO1" t="str">
-        <v>Text - PurposeOfIssue</v>
+        <v>IFC Parameters:IfcProject GUID</v>
       </c>
       <c r="BP1" t="str">
-        <v>Text - RevitTemplateDate</v>
+        <v>IFC Parameters:IfcSite GUID</v>
       </c>
       <c r="BQ1" t="str">
-        <v>Text - RevitVersion</v>
+        <v>IFC Parameters:Type IFC Predefined Type</v>
       </c>
       <c r="BR1" t="str">
-        <v>Data - COBie.Facility.Name</v>
+        <v>IFC Parameters:Type IfcGUID</v>
       </c>
       <c r="BS1" t="str">
-        <v>Data - COBie.Facility.Description</v>
+        <v>Materials and Finishes:Structural Material</v>
       </c>
       <c r="BT1" t="str">
-        <v>Route Analysis - Route Analysis Settings</v>
+        <v>Other:Client Name</v>
+      </c>
+      <c r="BU1" t="str">
+        <v>Other:Project Address</v>
+      </c>
+      <c r="BV1" t="str">
+        <v>Other:Project Issue Date</v>
+      </c>
+      <c r="BW1" t="str">
+        <v>Other:Project Name</v>
+      </c>
+      <c r="BX1" t="str">
+        <v>Other:Project Number</v>
+      </c>
+      <c r="BY1" t="str">
+        <v>Other:Project Status</v>
+      </c>
+      <c r="BZ1" t="str">
+        <v>Phasing:Phase Created</v>
+      </c>
+      <c r="CA1" t="str">
+        <v>Phasing:Phase Demolished</v>
+      </c>
+      <c r="CB1" t="str">
+        <v>Route Analysis:Route Analysis Settings</v>
+      </c>
+      <c r="CC1" t="str">
+        <v>Structural:Structural</v>
+      </c>
+      <c r="CD1" t="str">
+        <v>Structural:Structural Usage</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>P02_10_F_G00</v>
+        <v>Model</v>
       </c>
       <c r="C2" t="str">
-        <v>P02_10_F_G00</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>No</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v>G00</v>
+        <v/>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -682,34 +712,34 @@
         <v/>
       </c>
       <c r="U2" t="str">
-        <v>Shared Levels and Grids</v>
+        <v/>
       </c>
       <c r="V2" t="str">
         <v/>
       </c>
       <c r="W2" t="str">
-        <v>8999.993 mm</v>
+        <v/>
       </c>
       <c r="X2" t="str">
-        <v>Default</v>
+        <v/>
       </c>
       <c r="Y2" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="Z2" t="str">
         <v/>
       </c>
       <c r="AA2" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AB2" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AC2" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AD2" t="str">
-        <v>None</v>
+        <v/>
       </c>
       <c r="AE2" t="str">
         <v/>
@@ -718,7 +748,7 @@
         <v/>
       </c>
       <c r="AG2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AH2" t="str">
         <v/>
@@ -736,7 +766,7 @@
         <v/>
       </c>
       <c r="AM2" t="str">
-        <v>0.000 m^2</v>
+        <v/>
       </c>
       <c r="AN2" t="str">
         <v/>
@@ -745,10 +775,10 @@
         <v/>
       </c>
       <c r="AP2" t="str">
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="AQ2" t="str">
-        <v>-273.150 °C</v>
+        <v/>
       </c>
       <c r="AR2" t="str">
         <v/>
@@ -796,7 +826,7 @@
         <v/>
       </c>
       <c r="BG2" t="str">
-        <v/>
+        <v>Project Info</v>
       </c>
       <c r="BH2" t="str">
         <v/>
@@ -835,27 +865,57 @@
         <v/>
       </c>
       <c r="BT2" t="str">
+        <v/>
+      </c>
+      <c r="BU2" t="str">
+        <v/>
+      </c>
+      <c r="BV2" t="str">
+        <v/>
+      </c>
+      <c r="BW2" t="str">
+        <v/>
+      </c>
+      <c r="BX2" t="str">
+        <v/>
+      </c>
+      <c r="BY2" t="str">
+        <v/>
+      </c>
+      <c r="BZ2" t="str">
+        <v/>
+      </c>
+      <c r="CA2" t="str">
+        <v/>
+      </c>
+      <c r="CB2" t="str">
+        <v/>
+      </c>
+      <c r="CC2" t="str">
+        <v/>
+      </c>
+      <c r="CD2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>P02_10_F_001</v>
+        <v>Level 1</v>
       </c>
       <c r="C3" t="str">
-        <v>P02_10_F_001</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>No</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="F3" t="str">
-        <v>001</v>
+        <v/>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -873,7 +933,7 @@
         <v/>
       </c>
       <c r="L3" t="str">
-        <v/>
+        <v>0.000 mm</v>
       </c>
       <c r="M3" t="str">
         <v/>
@@ -885,7 +945,7 @@
         <v/>
       </c>
       <c r="P3" t="str">
-        <v/>
+        <v>Default</v>
       </c>
       <c r="Q3" t="str">
         <v/>
@@ -900,43 +960,43 @@
         <v/>
       </c>
       <c r="U3" t="str">
-        <v>Shared Levels and Grids</v>
+        <v/>
       </c>
       <c r="V3" t="str">
         <v/>
       </c>
       <c r="W3" t="str">
-        <v>14499.995 mm</v>
+        <v/>
       </c>
       <c r="X3" t="str">
-        <v>Default</v>
+        <v/>
       </c>
       <c r="Y3" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="Z3" t="str">
         <v/>
       </c>
       <c r="AA3" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AB3" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AC3" t="str">
         <v>0.000 mm</v>
       </c>
       <c r="AD3" t="str">
+        <v/>
+      </c>
+      <c r="AE3" t="str">
+        <v/>
+      </c>
+      <c r="AF3" t="str">
         <v>None</v>
       </c>
-      <c r="AE3" t="str">
-        <v/>
-      </c>
-      <c r="AF3" t="str">
-        <v/>
-      </c>
       <c r="AG3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AH3" t="str">
         <v/>
@@ -954,7 +1014,7 @@
         <v/>
       </c>
       <c r="AM3" t="str">
-        <v>0.000 m^2</v>
+        <v>Yes</v>
       </c>
       <c r="AN3" t="str">
         <v/>
@@ -963,10 +1023,10 @@
         <v/>
       </c>
       <c r="AP3" t="str">
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="AQ3" t="str">
-        <v>-273.150 °C</v>
+        <v/>
       </c>
       <c r="AR3" t="str">
         <v/>
@@ -987,7 +1047,7 @@
         <v/>
       </c>
       <c r="AX3" t="str">
-        <v/>
+        <v>Level 1</v>
       </c>
       <c r="AY3" t="str">
         <v/>
@@ -996,7 +1056,7 @@
         <v/>
       </c>
       <c r="BA3" t="str">
-        <v/>
+        <v>No</v>
       </c>
       <c r="BB3" t="str">
         <v/>
@@ -1014,10 +1074,10 @@
         <v/>
       </c>
       <c r="BG3" t="str">
-        <v/>
+        <v>Shared Views, Levels, Grids</v>
       </c>
       <c r="BH3" t="str">
-        <v/>
+        <v>By Type</v>
       </c>
       <c r="BI3" t="str">
         <v/>
@@ -1035,7 +1095,7 @@
         <v/>
       </c>
       <c r="BN3" t="str">
-        <v/>
+        <v>2feJeiooDAEhk7c6f1C5uV</v>
       </c>
       <c r="BO3" t="str">
         <v/>
@@ -1053,27 +1113,57 @@
         <v/>
       </c>
       <c r="BT3" t="str">
+        <v/>
+      </c>
+      <c r="BU3" t="str">
+        <v/>
+      </c>
+      <c r="BV3" t="str">
+        <v/>
+      </c>
+      <c r="BW3" t="str">
+        <v/>
+      </c>
+      <c r="BX3" t="str">
+        <v/>
+      </c>
+      <c r="BY3" t="str">
+        <v/>
+      </c>
+      <c r="BZ3" t="str">
+        <v/>
+      </c>
+      <c r="CA3" t="str">
+        <v/>
+      </c>
+      <c r="CB3" t="str">
+        <v/>
+      </c>
+      <c r="CC3" t="str">
+        <v/>
+      </c>
+      <c r="CD3" t="str">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B4" t="str">
-        <v>P02_10_F_002</v>
+        <v>Walls</v>
       </c>
       <c r="C4" t="str">
-        <v>P02_10_F_002</v>
+        <v/>
       </c>
       <c r="D4" t="str">
-        <v>No</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v>002</v>
+        <v/>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -1118,34 +1208,34 @@
         <v/>
       </c>
       <c r="U4" t="str">
-        <v>Shared Levels and Grids</v>
+        <v/>
       </c>
       <c r="V4" t="str">
         <v/>
       </c>
       <c r="W4" t="str">
-        <v>18500.000 mm</v>
+        <v/>
       </c>
       <c r="X4" t="str">
-        <v>Default</v>
+        <v/>
       </c>
       <c r="Y4" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="Z4" t="str">
         <v/>
       </c>
       <c r="AA4" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AB4" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AC4" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AD4" t="str">
-        <v>None</v>
+        <v/>
       </c>
       <c r="AE4" t="str">
         <v/>
@@ -1154,7 +1244,7 @@
         <v/>
       </c>
       <c r="AG4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AH4" t="str">
         <v/>
@@ -1172,7 +1262,7 @@
         <v/>
       </c>
       <c r="AM4" t="str">
-        <v>0.000 m^2</v>
+        <v/>
       </c>
       <c r="AN4" t="str">
         <v/>
@@ -1181,10 +1271,10 @@
         <v/>
       </c>
       <c r="AP4" t="str">
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="AQ4" t="str">
-        <v>-273.150 °C</v>
+        <v/>
       </c>
       <c r="AR4" t="str">
         <v/>
@@ -1271,27 +1361,57 @@
         <v/>
       </c>
       <c r="BT4" t="str">
+        <v/>
+      </c>
+      <c r="BU4" t="str">
+        <v/>
+      </c>
+      <c r="BV4" t="str">
+        <v/>
+      </c>
+      <c r="BW4" t="str">
+        <v/>
+      </c>
+      <c r="BX4" t="str">
+        <v/>
+      </c>
+      <c r="BY4" t="str">
+        <v/>
+      </c>
+      <c r="BZ4" t="str">
+        <v/>
+      </c>
+      <c r="CA4" t="str">
+        <v/>
+      </c>
+      <c r="CB4" t="str">
+        <v/>
+      </c>
+      <c r="CC4" t="str">
+        <v/>
+      </c>
+      <c r="CD4" t="str">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>5</v>
+        <v>2152</v>
       </c>
       <c r="B5" t="str">
-        <v>P02_10_F_B01</v>
+        <v>Basic Wall</v>
       </c>
       <c r="C5" t="str">
-        <v>P02_10_F_B01</v>
+        <v/>
       </c>
       <c r="D5" t="str">
-        <v>No</v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <v>Yes</v>
+        <v/>
       </c>
       <c r="F5" t="str">
-        <v>B01</v>
+        <v/>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -1336,34 +1456,34 @@
         <v/>
       </c>
       <c r="U5" t="str">
-        <v>Shared Levels and Grids</v>
+        <v/>
       </c>
       <c r="V5" t="str">
         <v/>
       </c>
       <c r="W5" t="str">
-        <v>3499.992 mm</v>
+        <v/>
       </c>
       <c r="X5" t="str">
-        <v>Default</v>
+        <v/>
       </c>
       <c r="Y5" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="Z5" t="str">
         <v/>
       </c>
       <c r="AA5" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AB5" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AC5" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AD5" t="str">
-        <v>None</v>
+        <v/>
       </c>
       <c r="AE5" t="str">
         <v/>
@@ -1372,7 +1492,7 @@
         <v/>
       </c>
       <c r="AG5" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AH5" t="str">
         <v/>
@@ -1390,7 +1510,7 @@
         <v/>
       </c>
       <c r="AM5" t="str">
-        <v>0.000 m^2</v>
+        <v/>
       </c>
       <c r="AN5" t="str">
         <v/>
@@ -1399,10 +1519,10 @@
         <v/>
       </c>
       <c r="AP5" t="str">
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="AQ5" t="str">
-        <v>-273.150 °C</v>
+        <v/>
       </c>
       <c r="AR5" t="str">
         <v/>
@@ -1489,30 +1609,60 @@
         <v/>
       </c>
       <c r="BT5" t="str">
+        <v/>
+      </c>
+      <c r="BU5" t="str">
+        <v/>
+      </c>
+      <c r="BV5" t="str">
+        <v/>
+      </c>
+      <c r="BW5" t="str">
+        <v/>
+      </c>
+      <c r="BX5" t="str">
+        <v/>
+      </c>
+      <c r="BY5" t="str">
+        <v/>
+      </c>
+      <c r="BZ5" t="str">
+        <v/>
+      </c>
+      <c r="CA5" t="str">
+        <v/>
+      </c>
+      <c r="CB5" t="str">
+        <v/>
+      </c>
+      <c r="CC5" t="str">
+        <v/>
+      </c>
+      <c r="CD5" t="str">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>6</v>
+        <v>2153</v>
       </c>
       <c r="B6" t="str">
-        <v>P02_10_F_003</v>
+        <v>Wall 1</v>
       </c>
       <c r="C6" t="str">
-        <v>P02_10_F_003</v>
+        <v>0.100</v>
       </c>
       <c r="D6" t="str">
-        <v>No</v>
+        <v>0.000 W/(m²·K)</v>
       </c>
       <c r="E6" t="str">
-        <v>Yes</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
-        <v>003</v>
+        <v>0.000 autodesk.unit.unit:kilojoulesPerSquareMeterKelvin-1.0.0</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>0.000 (m²·K)/W</v>
       </c>
       <c r="H6" t="str">
         <v/>
@@ -1554,34 +1704,34 @@
         <v/>
       </c>
       <c r="U6" t="str">
-        <v>Shared Levels and Grids</v>
+        <v/>
       </c>
       <c r="V6" t="str">
-        <v/>
+        <v>Exterior</v>
       </c>
       <c r="W6" t="str">
-        <v>22500.005 mm</v>
+        <v/>
       </c>
       <c r="X6" t="str">
-        <v>Default</v>
+        <v>200.000 mm</v>
       </c>
       <c r="Y6" t="str">
-        <v>0.000 mm</v>
+        <v>None</v>
       </c>
       <c r="Z6" t="str">
-        <v/>
+        <v>Do not wrap</v>
       </c>
       <c r="AA6" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AB6" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AC6" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AD6" t="str">
-        <v>None</v>
+        <v/>
       </c>
       <c r="AE6" t="str">
         <v/>
@@ -1608,19 +1758,19 @@
         <v/>
       </c>
       <c r="AM6" t="str">
-        <v>0.000 m^2</v>
+        <v/>
       </c>
       <c r="AN6" t="str">
         <v/>
       </c>
       <c r="AO6" t="str">
-        <v/>
+        <v>0.000 ฿</v>
       </c>
       <c r="AP6" t="str">
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="AQ6" t="str">
-        <v>-273.150 °C</v>
+        <v/>
       </c>
       <c r="AR6" t="str">
         <v/>
@@ -1668,7 +1818,7 @@
         <v/>
       </c>
       <c r="BG6" t="str">
-        <v/>
+        <v>Wall Types</v>
       </c>
       <c r="BH6" t="str">
         <v/>
@@ -1677,7 +1827,7 @@
         <v/>
       </c>
       <c r="BJ6" t="str">
-        <v/>
+        <v>Default</v>
       </c>
       <c r="BK6" t="str">
         <v/>
@@ -1701,108 +1851,138 @@
         <v/>
       </c>
       <c r="BR6" t="str">
-        <v/>
+        <v>2feJeiooDAEhk7c6f1C5xu</v>
       </c>
       <c r="BS6" t="str">
         <v/>
       </c>
       <c r="BT6" t="str">
+        <v/>
+      </c>
+      <c r="BU6" t="str">
+        <v/>
+      </c>
+      <c r="BV6" t="str">
+        <v/>
+      </c>
+      <c r="BW6" t="str">
+        <v/>
+      </c>
+      <c r="BX6" t="str">
+        <v/>
+      </c>
+      <c r="BY6" t="str">
+        <v/>
+      </c>
+      <c r="BZ6" t="str">
+        <v/>
+      </c>
+      <c r="CA6" t="str">
+        <v/>
+      </c>
+      <c r="CB6" t="str">
+        <v/>
+      </c>
+      <c r="CC6" t="str">
+        <v/>
+      </c>
+      <c r="CD6" t="str">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B7" t="str">
-        <v>P02_10_A_RF2</v>
+        <v>Basic Wall [2789]</v>
       </c>
       <c r="C7" t="str">
-        <v>P02_10_A_RF2</v>
+        <v>0.100</v>
       </c>
       <c r="D7" t="str">
+        <v>0.000 W/(m²·K)</v>
+      </c>
+      <c r="E7" t="str">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0.000 autodesk.unit.unit:kilojoulesPerSquareMeterKelvin-1.0.0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0.000 (m²·K)/W</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Level 1</v>
+      </c>
+      <c r="I7" t="str">
+        <v>0.000 mm</v>
+      </c>
+      <c r="J7" t="str">
         <v>No</v>
       </c>
-      <c r="E7" t="str">
+      <c r="K7" t="str">
+        <v>0.000 mm</v>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v>Wall Centerline</v>
+      </c>
+      <c r="N7" t="str">
+        <v>No</v>
+      </c>
+      <c r="O7" t="str">
         <v>Yes</v>
       </c>
-      <c r="F7" t="str">
-        <v>005</v>
-      </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <v/>
-      </c>
-      <c r="K7" t="str">
-        <v>Fifth Level</v>
-      </c>
-      <c r="L7" t="str">
-        <v/>
-      </c>
-      <c r="M7" t="str">
-        <v/>
-      </c>
-      <c r="N7" t="str">
-        <v/>
-      </c>
-      <c r="O7" t="str">
-        <v/>
-      </c>
       <c r="P7" t="str">
         <v/>
       </c>
       <c r="Q7" t="str">
-        <v/>
+        <v>Unconnected</v>
       </c>
       <c r="R7" t="str">
-        <v/>
+        <v>0.000 mm</v>
       </c>
       <c r="S7" t="str">
-        <v/>
+        <v>No</v>
       </c>
       <c r="T7" t="str">
-        <v/>
+        <v>0.000 mm</v>
       </c>
       <c r="U7" t="str">
-        <v>Shared Levels and Grids</v>
+        <v>4000.000 mm</v>
       </c>
       <c r="V7" t="str">
-        <v/>
+        <v>Exterior</v>
       </c>
       <c r="W7" t="str">
-        <v>29600.000 mm</v>
+        <v/>
       </c>
       <c r="X7" t="str">
-        <v>Default</v>
+        <v>200.000 mm</v>
       </c>
       <c r="Y7" t="str">
-        <v>0.000 mm</v>
+        <v>None</v>
       </c>
       <c r="Z7" t="str">
-        <v/>
+        <v>Do not wrap</v>
       </c>
       <c r="AA7" t="str">
-        <v>0.000 mm</v>
+        <v>Vertical</v>
       </c>
       <c r="AB7" t="str">
-        <v>0.000 mm</v>
+        <v>7.200 m^2</v>
       </c>
       <c r="AC7" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AD7" t="str">
-        <v>None</v>
+        <v>1800.000 mm</v>
       </c>
       <c r="AE7" t="str">
-        <v>005</v>
+        <v>1.440 m^3</v>
       </c>
       <c r="AF7" t="str">
         <v/>
@@ -1826,19 +2006,19 @@
         <v/>
       </c>
       <c r="AM7" t="str">
-        <v>0.000 m^2</v>
+        <v/>
       </c>
       <c r="AN7" t="str">
-        <v/>
+        <v>este es un comentario</v>
       </c>
       <c r="AO7" t="str">
-        <v/>
+        <v>0.000 ฿</v>
       </c>
       <c r="AP7" t="str">
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="AQ7" t="str">
-        <v>-273.150 °C</v>
+        <v/>
       </c>
       <c r="AR7" t="str">
         <v/>
@@ -1853,7 +2033,7 @@
         <v/>
       </c>
       <c r="AV7" t="str">
-        <v/>
+        <v>My Tipe mark</v>
       </c>
       <c r="AW7" t="str">
         <v/>
@@ -1880,22 +2060,22 @@
         <v/>
       </c>
       <c r="BE7" t="str">
-        <v/>
+        <v>Wall 1</v>
       </c>
       <c r="BF7" t="str">
         <v/>
       </c>
       <c r="BG7" t="str">
-        <v/>
+        <v>Workset1</v>
       </c>
       <c r="BH7" t="str">
-        <v/>
+        <v>By Type</v>
       </c>
       <c r="BI7" t="str">
         <v/>
       </c>
       <c r="BJ7" t="str">
-        <v/>
+        <v>Default</v>
       </c>
       <c r="BK7" t="str">
         <v/>
@@ -1907,7 +2087,7 @@
         <v/>
       </c>
       <c r="BN7" t="str">
-        <v/>
+        <v>2feJeiooDAEhk7c6f1C5E6</v>
       </c>
       <c r="BO7" t="str">
         <v/>
@@ -1919,36 +2099,66 @@
         <v/>
       </c>
       <c r="BR7" t="str">
-        <v/>
+        <v>2feJeiooDAEhk7c6f1C5xu</v>
       </c>
       <c r="BS7" t="str">
         <v/>
       </c>
       <c r="BT7" t="str">
         <v/>
+      </c>
+      <c r="BU7" t="str">
+        <v/>
+      </c>
+      <c r="BV7" t="str">
+        <v/>
+      </c>
+      <c r="BW7" t="str">
+        <v/>
+      </c>
+      <c r="BX7" t="str">
+        <v/>
+      </c>
+      <c r="BY7" t="str">
+        <v/>
+      </c>
+      <c r="BZ7" t="str">
+        <v>New Construction</v>
+      </c>
+      <c r="CA7" t="str">
+        <v>None</v>
+      </c>
+      <c r="CB7" t="str">
+        <v/>
+      </c>
+      <c r="CC7" t="str">
+        <v>No</v>
+      </c>
+      <c r="CD7" t="str">
+        <v>Non-bearing</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>8</v>
+        <v>2154</v>
       </c>
       <c r="B8" t="str">
-        <v>P02_10_F_RF1</v>
+        <v>familai de muro tipo 2</v>
       </c>
       <c r="C8" t="str">
-        <v>P02_10_F_RF1</v>
+        <v>0.100</v>
       </c>
       <c r="D8" t="str">
-        <v>No</v>
+        <v>0.000 W/(m²·K)</v>
       </c>
       <c r="E8" t="str">
-        <v>Yes</v>
+        <v>1</v>
       </c>
       <c r="F8" t="str">
-        <v>004</v>
+        <v>0.000 autodesk.unit.unit:kilojoulesPerSquareMeterKelvin-1.0.0</v>
       </c>
       <c r="G8" t="str">
-        <v/>
+        <v>0.000 (m²·K)/W</v>
       </c>
       <c r="H8" t="str">
         <v/>
@@ -1960,7 +2170,7 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <v>Fourth Level</v>
+        <v/>
       </c>
       <c r="L8" t="str">
         <v/>
@@ -1990,37 +2200,37 @@
         <v/>
       </c>
       <c r="U8" t="str">
-        <v>Shared Levels and Grids</v>
+        <v/>
       </c>
       <c r="V8" t="str">
-        <v/>
+        <v>Exterior</v>
       </c>
       <c r="W8" t="str">
-        <v>26900.000 mm</v>
+        <v/>
       </c>
       <c r="X8" t="str">
-        <v>Default</v>
+        <v>200.000 mm</v>
       </c>
       <c r="Y8" t="str">
-        <v>0.000 mm</v>
+        <v>None</v>
       </c>
       <c r="Z8" t="str">
-        <v/>
+        <v>Do not wrap</v>
       </c>
       <c r="AA8" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AB8" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AC8" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AD8" t="str">
-        <v>None</v>
+        <v/>
       </c>
       <c r="AE8" t="str">
-        <v>004</v>
+        <v/>
       </c>
       <c r="AF8" t="str">
         <v/>
@@ -2044,19 +2254,19 @@
         <v/>
       </c>
       <c r="AM8" t="str">
-        <v>0.000 m^2</v>
+        <v/>
       </c>
       <c r="AN8" t="str">
         <v/>
       </c>
       <c r="AO8" t="str">
-        <v/>
+        <v>0.000 ฿</v>
       </c>
       <c r="AP8" t="str">
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="AQ8" t="str">
-        <v>-273.150 °C</v>
+        <v/>
       </c>
       <c r="AR8" t="str">
         <v/>
@@ -2089,7 +2299,7 @@
         <v/>
       </c>
       <c r="BB8" t="str">
-        <v/>
+        <v>comentario de tipo 2</v>
       </c>
       <c r="BC8" t="str">
         <v/>
@@ -2104,7 +2314,7 @@
         <v/>
       </c>
       <c r="BG8" t="str">
-        <v/>
+        <v>Wall Types</v>
       </c>
       <c r="BH8" t="str">
         <v/>
@@ -2113,7 +2323,7 @@
         <v/>
       </c>
       <c r="BJ8" t="str">
-        <v/>
+        <v>Default</v>
       </c>
       <c r="BK8" t="str">
         <v/>
@@ -2137,108 +2347,138 @@
         <v/>
       </c>
       <c r="BR8" t="str">
-        <v/>
+        <v>2feJeiooDAEhk7c6f1C596</v>
       </c>
       <c r="BS8" t="str">
         <v/>
       </c>
       <c r="BT8" t="str">
+        <v/>
+      </c>
+      <c r="BU8" t="str">
+        <v/>
+      </c>
+      <c r="BV8" t="str">
+        <v/>
+      </c>
+      <c r="BW8" t="str">
+        <v/>
+      </c>
+      <c r="BX8" t="str">
+        <v/>
+      </c>
+      <c r="BY8" t="str">
+        <v/>
+      </c>
+      <c r="BZ8" t="str">
+        <v/>
+      </c>
+      <c r="CA8" t="str">
+        <v/>
+      </c>
+      <c r="CB8" t="str">
+        <v/>
+      </c>
+      <c r="CC8" t="str">
+        <v/>
+      </c>
+      <c r="CD8" t="str">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B9" t="str">
-        <v>P02_10_F_u-B01</v>
+        <v>Basic Wall [2828]</v>
       </c>
       <c r="C9" t="str">
-        <v>P02_10_F_u-B01</v>
+        <v>0.100</v>
       </c>
       <c r="D9" t="str">
+        <v>0.000 W/(m²·K)</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0.000 autodesk.unit.unit:kilojoulesPerSquareMeterKelvin-1.0.0</v>
+      </c>
+      <c r="G9" t="str">
+        <v>0.000 (m²·K)/W</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Level 1</v>
+      </c>
+      <c r="I9" t="str">
+        <v>0.000 mm</v>
+      </c>
+      <c r="J9" t="str">
         <v>No</v>
       </c>
-      <c r="E9" t="str">
+      <c r="K9" t="str">
+        <v>0.000 mm</v>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v>Wall Centerline</v>
+      </c>
+      <c r="N9" t="str">
+        <v>No</v>
+      </c>
+      <c r="O9" t="str">
         <v>Yes</v>
       </c>
-      <c r="F9" t="str">
-        <v>B01</v>
-      </c>
-      <c r="G9" t="str">
-        <v/>
-      </c>
-      <c r="H9" t="str">
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <v/>
-      </c>
-      <c r="J9" t="str">
-        <v/>
-      </c>
-      <c r="K9" t="str">
-        <v>Basment 01</v>
-      </c>
-      <c r="L9" t="str">
-        <v/>
-      </c>
-      <c r="M9" t="str">
-        <v/>
-      </c>
-      <c r="N9" t="str">
-        <v/>
-      </c>
-      <c r="O9" t="str">
-        <v/>
-      </c>
       <c r="P9" t="str">
         <v/>
       </c>
       <c r="Q9" t="str">
-        <v/>
+        <v>Unconnected</v>
       </c>
       <c r="R9" t="str">
-        <v/>
+        <v>0.000 mm</v>
       </c>
       <c r="S9" t="str">
-        <v/>
+        <v>No</v>
       </c>
       <c r="T9" t="str">
-        <v/>
+        <v>0.000 mm</v>
       </c>
       <c r="U9" t="str">
-        <v>Shared Levels and Grids</v>
+        <v>4000.000 mm</v>
       </c>
       <c r="V9" t="str">
-        <v/>
+        <v>Exterior</v>
       </c>
       <c r="W9" t="str">
-        <v>6000.000 mm</v>
+        <v/>
       </c>
       <c r="X9" t="str">
-        <v>Default</v>
+        <v>200.000 mm</v>
       </c>
       <c r="Y9" t="str">
-        <v>0.000 mm</v>
+        <v>None</v>
       </c>
       <c r="Z9" t="str">
-        <v/>
+        <v>Do not wrap</v>
       </c>
       <c r="AA9" t="str">
-        <v>0.000 mm</v>
+        <v>Vertical</v>
       </c>
       <c r="AB9" t="str">
-        <v>0.000 mm</v>
+        <v>7.200 m^2</v>
       </c>
       <c r="AC9" t="str">
-        <v>0.000 mm</v>
+        <v/>
       </c>
       <c r="AD9" t="str">
-        <v>None</v>
+        <v>1800.000 mm</v>
       </c>
       <c r="AE9" t="str">
-        <v/>
+        <v>1.440 m^3</v>
       </c>
       <c r="AF9" t="str">
         <v/>
@@ -2262,19 +2502,19 @@
         <v/>
       </c>
       <c r="AM9" t="str">
-        <v>0.000 m^2</v>
+        <v/>
       </c>
       <c r="AN9" t="str">
-        <v/>
+        <v>este es un comentario del segundo muro</v>
       </c>
       <c r="AO9" t="str">
-        <v/>
+        <v>0.000 ฿</v>
       </c>
       <c r="AP9" t="str">
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="AQ9" t="str">
-        <v>-273.150 °C</v>
+        <v/>
       </c>
       <c r="AR9" t="str">
         <v/>
@@ -2289,7 +2529,7 @@
         <v/>
       </c>
       <c r="AV9" t="str">
-        <v/>
+        <v>mumro dos</v>
       </c>
       <c r="AW9" t="str">
         <v/>
@@ -2307,7 +2547,7 @@
         <v/>
       </c>
       <c r="BB9" t="str">
-        <v/>
+        <v>comentario de tipo 2</v>
       </c>
       <c r="BC9" t="str">
         <v/>
@@ -2316,22 +2556,22 @@
         <v/>
       </c>
       <c r="BE9" t="str">
-        <v/>
+        <v>familai de muro tipo 2</v>
       </c>
       <c r="BF9" t="str">
         <v/>
       </c>
       <c r="BG9" t="str">
-        <v/>
+        <v>Workset1</v>
       </c>
       <c r="BH9" t="str">
-        <v/>
+        <v>By Type</v>
       </c>
       <c r="BI9" t="str">
         <v/>
       </c>
       <c r="BJ9" t="str">
-        <v/>
+        <v>Default</v>
       </c>
       <c r="BK9" t="str">
         <v/>
@@ -2343,7 +2583,7 @@
         <v/>
       </c>
       <c r="BN9" t="str">
-        <v/>
+        <v>2feJeiooDAEhk7c6f1C59l</v>
       </c>
       <c r="BO9" t="str">
         <v/>
@@ -2355,7 +2595,7 @@
         <v/>
       </c>
       <c r="BR9" t="str">
-        <v/>
+        <v>2feJeiooDAEhk7c6f1C596</v>
       </c>
       <c r="BS9" t="str">
         <v/>
@@ -2363,446 +2603,40 @@
       <c r="BT9" t="str">
         <v/>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="str">
-        <v>P02_10_F_i-B01</v>
-      </c>
-      <c r="C10" t="str">
-        <v>P02_10_F_i-B01</v>
-      </c>
-      <c r="D10" t="str">
+      <c r="BU9" t="str">
+        <v/>
+      </c>
+      <c r="BV9" t="str">
+        <v/>
+      </c>
+      <c r="BW9" t="str">
+        <v/>
+      </c>
+      <c r="BX9" t="str">
+        <v/>
+      </c>
+      <c r="BY9" t="str">
+        <v/>
+      </c>
+      <c r="BZ9" t="str">
+        <v>New Construction</v>
+      </c>
+      <c r="CA9" t="str">
+        <v>None</v>
+      </c>
+      <c r="CB9" t="str">
+        <v/>
+      </c>
+      <c r="CC9" t="str">
         <v>No</v>
       </c>
-      <c r="E10" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="F10" t="str">
-        <v>B01</v>
-      </c>
-      <c r="G10" t="str">
-        <v/>
-      </c>
-      <c r="H10" t="str">
-        <v/>
-      </c>
-      <c r="I10" t="str">
-        <v/>
-      </c>
-      <c r="J10" t="str">
-        <v/>
-      </c>
-      <c r="K10" t="str">
-        <v>Basment 01</v>
-      </c>
-      <c r="L10" t="str">
-        <v/>
-      </c>
-      <c r="M10" t="str">
-        <v/>
-      </c>
-      <c r="N10" t="str">
-        <v/>
-      </c>
-      <c r="O10" t="str">
-        <v/>
-      </c>
-      <c r="P10" t="str">
-        <v/>
-      </c>
-      <c r="Q10" t="str">
-        <v/>
-      </c>
-      <c r="R10" t="str">
-        <v/>
-      </c>
-      <c r="S10" t="str">
-        <v/>
-      </c>
-      <c r="T10" t="str">
-        <v/>
-      </c>
-      <c r="U10" t="str">
-        <v>Shared Levels and Grids</v>
-      </c>
-      <c r="V10" t="str">
-        <v/>
-      </c>
-      <c r="W10" t="str">
-        <v>3890.000 mm</v>
-      </c>
-      <c r="X10" t="str">
-        <v>Default</v>
-      </c>
-      <c r="Y10" t="str">
-        <v>0.000 mm</v>
-      </c>
-      <c r="Z10" t="str">
-        <v/>
-      </c>
-      <c r="AA10" t="str">
-        <v>0.000 mm</v>
-      </c>
-      <c r="AB10" t="str">
-        <v>0.000 mm</v>
-      </c>
-      <c r="AC10" t="str">
-        <v>0.000 mm</v>
-      </c>
-      <c r="AD10" t="str">
-        <v>None</v>
-      </c>
-      <c r="AE10" t="str">
-        <v/>
-      </c>
-      <c r="AF10" t="str">
-        <v/>
-      </c>
-      <c r="AG10" t="str">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="str">
-        <v/>
-      </c>
-      <c r="AI10" t="str">
-        <v/>
-      </c>
-      <c r="AJ10" t="str">
-        <v/>
-      </c>
-      <c r="AK10" t="str">
-        <v/>
-      </c>
-      <c r="AL10" t="str">
-        <v/>
-      </c>
-      <c r="AM10" t="str">
-        <v>0.000 m^2</v>
-      </c>
-      <c r="AN10" t="str">
-        <v/>
-      </c>
-      <c r="AO10" t="str">
-        <v/>
-      </c>
-      <c r="AP10" t="str">
-        <v>0.000</v>
-      </c>
-      <c r="AQ10" t="str">
-        <v>-273.150 °C</v>
-      </c>
-      <c r="AR10" t="str">
-        <v/>
-      </c>
-      <c r="AS10" t="str">
-        <v/>
-      </c>
-      <c r="AT10" t="str">
-        <v/>
-      </c>
-      <c r="AU10" t="str">
-        <v/>
-      </c>
-      <c r="AV10" t="str">
-        <v/>
-      </c>
-      <c r="AW10" t="str">
-        <v/>
-      </c>
-      <c r="AX10" t="str">
-        <v/>
-      </c>
-      <c r="AY10" t="str">
-        <v/>
-      </c>
-      <c r="AZ10" t="str">
-        <v/>
-      </c>
-      <c r="BA10" t="str">
-        <v/>
-      </c>
-      <c r="BB10" t="str">
-        <v/>
-      </c>
-      <c r="BC10" t="str">
-        <v/>
-      </c>
-      <c r="BD10" t="str">
-        <v/>
-      </c>
-      <c r="BE10" t="str">
-        <v/>
-      </c>
-      <c r="BF10" t="str">
-        <v/>
-      </c>
-      <c r="BG10" t="str">
-        <v/>
-      </c>
-      <c r="BH10" t="str">
-        <v/>
-      </c>
-      <c r="BI10" t="str">
-        <v/>
-      </c>
-      <c r="BJ10" t="str">
-        <v/>
-      </c>
-      <c r="BK10" t="str">
-        <v/>
-      </c>
-      <c r="BL10" t="str">
-        <v/>
-      </c>
-      <c r="BM10" t="str">
-        <v/>
-      </c>
-      <c r="BN10" t="str">
-        <v/>
-      </c>
-      <c r="BO10" t="str">
-        <v/>
-      </c>
-      <c r="BP10" t="str">
-        <v/>
-      </c>
-      <c r="BQ10" t="str">
-        <v/>
-      </c>
-      <c r="BR10" t="str">
-        <v/>
-      </c>
-      <c r="BS10" t="str">
-        <v/>
-      </c>
-      <c r="BT10" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="str">
-        <v>P02_10_F_GMP</v>
-      </c>
-      <c r="C11" t="str">
-        <v>P02_10_F_GMP</v>
-      </c>
-      <c r="D11" t="str">
-        <v>No</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="F11" t="str">
-        <v>B01</v>
-      </c>
-      <c r="G11" t="str">
-        <v/>
-      </c>
-      <c r="H11" t="str">
-        <v/>
-      </c>
-      <c r="I11" t="str">
-        <v/>
-      </c>
-      <c r="J11" t="str">
-        <v/>
-      </c>
-      <c r="K11" t="str">
-        <v>Basment 01</v>
-      </c>
-      <c r="L11" t="str">
-        <v/>
-      </c>
-      <c r="M11" t="str">
-        <v/>
-      </c>
-      <c r="N11" t="str">
-        <v/>
-      </c>
-      <c r="O11" t="str">
-        <v/>
-      </c>
-      <c r="P11" t="str">
-        <v/>
-      </c>
-      <c r="Q11" t="str">
-        <v/>
-      </c>
-      <c r="R11" t="str">
-        <v/>
-      </c>
-      <c r="S11" t="str">
-        <v/>
-      </c>
-      <c r="T11" t="str">
-        <v/>
-      </c>
-      <c r="U11" t="str">
-        <v>Shared Levels and Grids</v>
-      </c>
-      <c r="V11" t="str">
-        <v/>
-      </c>
-      <c r="W11" t="str">
-        <v>-0.008 mm</v>
-      </c>
-      <c r="X11" t="str">
-        <v>Default</v>
-      </c>
-      <c r="Y11" t="str">
-        <v>0.000 mm</v>
-      </c>
-      <c r="Z11" t="str">
-        <v/>
-      </c>
-      <c r="AA11" t="str">
-        <v>0.000 mm</v>
-      </c>
-      <c r="AB11" t="str">
-        <v>0.000 mm</v>
-      </c>
-      <c r="AC11" t="str">
-        <v>0.000 mm</v>
-      </c>
-      <c r="AD11" t="str">
-        <v>None</v>
-      </c>
-      <c r="AE11" t="str">
-        <v>B01</v>
-      </c>
-      <c r="AF11" t="str">
-        <v/>
-      </c>
-      <c r="AG11" t="str">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="str">
-        <v/>
-      </c>
-      <c r="AI11" t="str">
-        <v/>
-      </c>
-      <c r="AJ11" t="str">
-        <v/>
-      </c>
-      <c r="AK11" t="str">
-        <v/>
-      </c>
-      <c r="AL11" t="str">
-        <v/>
-      </c>
-      <c r="AM11" t="str">
-        <v>0.000 m^2</v>
-      </c>
-      <c r="AN11" t="str">
-        <v/>
-      </c>
-      <c r="AO11" t="str">
-        <v/>
-      </c>
-      <c r="AP11" t="str">
-        <v>0.000</v>
-      </c>
-      <c r="AQ11" t="str">
-        <v>-273.150 °C</v>
-      </c>
-      <c r="AR11" t="str">
-        <v/>
-      </c>
-      <c r="AS11" t="str">
-        <v/>
-      </c>
-      <c r="AT11" t="str">
-        <v/>
-      </c>
-      <c r="AU11" t="str">
-        <v/>
-      </c>
-      <c r="AV11" t="str">
-        <v/>
-      </c>
-      <c r="AW11" t="str">
-        <v/>
-      </c>
-      <c r="AX11" t="str">
-        <v/>
-      </c>
-      <c r="AY11" t="str">
-        <v/>
-      </c>
-      <c r="AZ11" t="str">
-        <v/>
-      </c>
-      <c r="BA11" t="str">
-        <v/>
-      </c>
-      <c r="BB11" t="str">
-        <v/>
-      </c>
-      <c r="BC11" t="str">
-        <v/>
-      </c>
-      <c r="BD11" t="str">
-        <v/>
-      </c>
-      <c r="BE11" t="str">
-        <v/>
-      </c>
-      <c r="BF11" t="str">
-        <v/>
-      </c>
-      <c r="BG11" t="str">
-        <v/>
-      </c>
-      <c r="BH11" t="str">
-        <v/>
-      </c>
-      <c r="BI11" t="str">
-        <v/>
-      </c>
-      <c r="BJ11" t="str">
-        <v/>
-      </c>
-      <c r="BK11" t="str">
-        <v/>
-      </c>
-      <c r="BL11" t="str">
-        <v/>
-      </c>
-      <c r="BM11" t="str">
-        <v/>
-      </c>
-      <c r="BN11" t="str">
-        <v/>
-      </c>
-      <c r="BO11" t="str">
-        <v/>
-      </c>
-      <c r="BP11" t="str">
-        <v/>
-      </c>
-      <c r="BQ11" t="str">
-        <v/>
-      </c>
-      <c r="BR11" t="str">
-        <v/>
-      </c>
-      <c r="BS11" t="str">
-        <v/>
-      </c>
-      <c r="BT11" t="str">
-        <v/>
+      <c r="CD9" t="str">
+        <v>Non-bearing</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BT11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:CD9"/>
   </ignoredErrors>
 </worksheet>
 </file>